--- a/德福词汇/后缀.xlsx
+++ b/德福词汇/后缀.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11017"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeziyang/Desktop/德语/Deutsch/德福词汇/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2A57E0-8DD6-C948-A58D-95101989CCEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{9D2A57E0-8DD6-C948-A58D-95101989CCEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D619E92F-5179-9847-A8A7-1092D9450FD3}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="940" windowWidth="24540" windowHeight="13960" activeTab="5" xr2:uid="{312D5619-D0D9-6A48-88C6-7774D2711958}"/>
+    <workbookView xWindow="1060" yWindow="940" windowWidth="24540" windowHeight="13960" activeTab="9" xr2:uid="{312D5619-D0D9-6A48-88C6-7774D2711958}"/>
   </bookViews>
   <sheets>
     <sheet name="-nehmen" sheetId="2" r:id="rId1"/>
@@ -22,8 +22,9 @@
     <sheet name="-schließen" sheetId="7" r:id="rId7"/>
     <sheet name="-grefen" sheetId="1" r:id="rId8"/>
     <sheet name="-setzen" sheetId="9" r:id="rId9"/>
+    <sheet name="-kommen" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="195">
   <si>
     <t>---</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -745,13 +746,64 @@
   <si>
     <t>ersetzen</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auffälligeweisen</t>
+  </si>
+  <si>
+    <t>aufkommen</t>
+  </si>
+  <si>
+    <t>auskommen</t>
+  </si>
+  <si>
+    <t>ankommen</t>
+  </si>
+  <si>
+    <t>到达</t>
+  </si>
+  <si>
+    <t>auf A ankommen</t>
+  </si>
+  <si>
+    <t>依赖于</t>
+  </si>
+  <si>
+    <t>产生，出现</t>
+  </si>
+  <si>
+    <t>出来</t>
+  </si>
+  <si>
+    <t>auskommen mit</t>
+  </si>
+  <si>
+    <t>和睦相处</t>
+  </si>
+  <si>
+    <t>s,Einkommen</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>vorkommen</t>
+  </si>
+  <si>
+    <t>发生</t>
+  </si>
+  <si>
+    <t>存在，有</t>
+  </si>
+  <si>
+    <t>使人觉得</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1155,16 +1207,16 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="25.9765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.70703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.79296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1178,7 +1230,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -1192,7 +1244,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
@@ -1206,7 +1258,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -1220,7 +1272,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -1234,7 +1286,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -1248,7 +1300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -1262,7 +1314,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1273,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1287,7 +1339,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,7 +1353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1315,7 +1367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1329,7 +1381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1343,7 +1395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1357,7 +1409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1368,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1383,6 +1435,86 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6CD299-7A6F-2348-94E1-2AC2D67D2E13}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.3515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.03125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.48828125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1391,18 +1523,18 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="14.11328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.79296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -1416,7 +1548,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
@@ -1430,7 +1562,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>66</v>
       </c>
@@ -1440,8 +1572,11 @@
       <c r="C3" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>63</v>
       </c>
@@ -1452,7 +1587,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
@@ -1460,7 +1595,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -1488,15 +1623,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="12.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.11328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.79296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -1507,7 +1642,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
@@ -1521,7 +1656,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>116</v>
       </c>
@@ -1538,7 +1673,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>119</v>
       </c>
@@ -1552,7 +1687,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>126</v>
       </c>
@@ -1560,7 +1695,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>128</v>
       </c>
@@ -1568,7 +1703,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>130</v>
       </c>
@@ -1590,14 +1725,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="12.3359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.79296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -1605,7 +1740,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>132</v>
       </c>
@@ -1630,17 +1765,17 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="14.11328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.9765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.79296875" style="1"/>
+    <col min="5" max="5" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.79296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
@@ -1648,7 +1783,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>134</v>
       </c>
@@ -1662,7 +1797,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>138</v>
       </c>
@@ -1676,7 +1811,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>142</v>
       </c>
@@ -1693,7 +1828,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>146</v>
       </c>
@@ -1711,19 +1846,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D21E8A1-1C5F-B34F-85D7-BFAEEB9E8929}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="15.65625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.79296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -1734,7 +1869,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
@@ -1742,13 +1877,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -1762,7 +1897,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
@@ -1790,16 +1925,16 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="17.79296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.70703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.98046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.3359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.79296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
@@ -1813,7 +1948,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
@@ -1827,7 +1962,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>93</v>
       </c>
@@ -1847,7 +1982,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
@@ -1864,7 +1999,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -1886,14 +2021,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="16.48828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.98046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.79296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
@@ -1901,7 +2036,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>104</v>
       </c>
@@ -1909,7 +2044,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>105</v>
       </c>
@@ -1917,7 +2052,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>106</v>
       </c>
@@ -1925,7 +2060,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>107</v>
       </c>
@@ -1933,7 +2068,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>115</v>
       </c>
@@ -1955,14 +2090,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="14.11328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.79296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>149</v>
       </c>
@@ -1976,7 +2111,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>164</v>
       </c>
@@ -1984,7 +2119,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>166</v>
       </c>
@@ -1992,7 +2127,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>168</v>
       </c>
@@ -2006,7 +2141,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>173</v>
       </c>
@@ -2014,7 +2149,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>175</v>
       </c>

--- a/德福词汇/后缀.xlsx
+++ b/德福词汇/后缀.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeziyang/Desktop/德语/Deutsch/德福词汇/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{9D2A57E0-8DD6-C948-A58D-95101989CCEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D619E92F-5179-9847-A8A7-1092D9450FD3}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{9D2A57E0-8DD6-C948-A58D-95101989CCEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{97E3FF8C-9C44-594F-ACBB-F54D2898A23A}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="940" windowWidth="24540" windowHeight="13960" activeTab="9" xr2:uid="{312D5619-D0D9-6A48-88C6-7774D2711958}"/>
+    <workbookView xWindow="1060" yWindow="940" windowWidth="24540" windowHeight="13960" activeTab="5" xr2:uid="{312D5619-D0D9-6A48-88C6-7774D2711958}"/>
   </bookViews>
   <sheets>
     <sheet name="-nehmen" sheetId="2" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="-halten" sheetId="8" r:id="rId5"/>
     <sheet name="-stellen" sheetId="6" r:id="rId6"/>
     <sheet name="-schließen" sheetId="7" r:id="rId7"/>
-    <sheet name="-grefen" sheetId="1" r:id="rId8"/>
+    <sheet name="-greifen" sheetId="1" r:id="rId8"/>
     <sheet name="-setzen" sheetId="9" r:id="rId9"/>
     <sheet name="-kommen" sheetId="10" r:id="rId10"/>
+    <sheet name="-führen" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="192">
   <si>
     <t>---</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -352,10 +353,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>aufstellen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>雇佣</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -596,22 +593,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>anhalten</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使停下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>anhalten zu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敦促</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>aufhalten</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -708,14 +689,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>aufsetzen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>放上面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>aussetzen</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -797,6 +770,24 @@
   </si>
   <si>
     <t>使人觉得</t>
+  </si>
+  <si>
+    <t>ausführen</t>
+  </si>
+  <si>
+    <t>aufführen</t>
+  </si>
+  <si>
+    <t>einführen</t>
+  </si>
+  <si>
+    <t>详细解释</t>
+  </si>
+  <si>
+    <t>上演</t>
+  </si>
+  <si>
+    <t>引入，介绍</t>
   </si>
 </sst>
 </file>
@@ -1201,233 +1192,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D70ED0-2725-5346-AAB0-B8CE1057E58B}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.9765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.70703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.79296875" style="1"/>
+    <col min="1" max="1" width="10.79296875" style="1"/>
+    <col min="2" max="2" width="25.9765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.70703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.79296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="D15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1440,77 +1480,146 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6CD299-7A6F-2348-94E1-2AC2D67D2E13}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.3515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.03125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.84375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.48828125" style="3"/>
+    <col min="1" max="1" width="9.48828125" style="3"/>
+    <col min="2" max="2" width="14.3515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.03125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.48828125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>177</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895EA3D0-8925-A644-8B4C-DA76FF0DB98F}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.48828125" style="3"/>
+    <col min="2" max="3" width="11.98046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.48828125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3">
+        <v>0</v>
+      </c>
       <c r="B1" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>179</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1520,92 +1629,111 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9CD75D-A53D-2741-A582-A35FF77E2953}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A6" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.11328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.87890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.79296875" style="1"/>
+    <col min="1" max="1" width="10.79296875" style="1"/>
+    <col min="2" max="2" width="14.11328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.79296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1617,98 +1745,120 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94AC84B-217D-FF4B-987D-B1E35A5FD008}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A8" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.87890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.11328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.79296875" style="1"/>
+    <col min="1" max="1" width="10.79296875" style="1"/>
+    <col min="2" max="2" width="12.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.11328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.79296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1734,21 +1884,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1759,81 +1909,80 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE33B91-C89B-F846-AC70-022207EEB949}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.11328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.87890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.9765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.79296875" style="1"/>
-    <col min="5" max="5" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.79296875" style="1"/>
+    <col min="1" max="1" width="10.79296875" style="1"/>
+    <col min="2" max="2" width="14.11328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.9765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.79296875" style="1"/>
+    <col min="6" max="6" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.79296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1844,71 +1993,78 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D21E8A1-1C5F-B34F-85D7-BFAEEB9E8929}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.65625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.79296875" style="1"/>
+    <col min="1" max="1" width="6.87890625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.79296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>79</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="C3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1919,24 +2075,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E877D54A-0799-AC4A-A7ED-A76CFFFFCC73}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A5" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.79296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.70703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.98046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.79296875" style="1"/>
+    <col min="1" max="1" width="10.79296875" style="1"/>
+    <col min="2" max="2" width="17.79296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.70703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.98046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.3359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.79296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>101</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>100</v>
@@ -1947,10 +2104,13 @@
       <c r="D1" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>96</v>
@@ -1961,15 +2121,18 @@
       <c r="D2" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1981,15 +2144,18 @@
       <c r="F3" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1998,13 +2164,19 @@
       <c r="E4" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>81</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2018,7 +2190,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
@@ -2030,47 +2202,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>69</v>
@@ -2084,77 +2256,85 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8309ABAF-BEFA-7B4B-A5F5-83A7C4C7EFCA}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.11328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.87890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.79296875" style="1"/>
+    <col min="1" max="1" width="10.79296875" style="1"/>
+    <col min="2" max="2" width="14.11328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.79296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>149</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>156</v>
+      <c r="C5" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/德福词汇/后缀.xlsx
+++ b/德福词汇/后缀.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{9D2A57E0-8DD6-C948-A58D-95101989CCEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{97E3FF8C-9C44-594F-ACBB-F54D2898A23A}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="940" windowWidth="24540" windowHeight="13960" activeTab="5" xr2:uid="{312D5619-D0D9-6A48-88C6-7774D2711958}"/>
+    <workbookView xWindow="1060" yWindow="940" windowWidth="24540" windowHeight="13960" activeTab="9" xr2:uid="{312D5619-D0D9-6A48-88C6-7774D2711958}"/>
   </bookViews>
   <sheets>
     <sheet name="-nehmen" sheetId="2" r:id="rId1"/>
@@ -1482,7 +1482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6CD299-7A6F-2348-94E1-2AC2D67D2E13}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1995,7 +1995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D21E8A1-1C5F-B34F-85D7-BFAEEB9E8929}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
